--- a/biology/Biochimie/Octréotide/Octréotide.xlsx
+++ b/biology/Biochimie/Octréotide/Octréotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Octr%C3%A9otide</t>
+          <t>Octréotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’octréotide est un octapeptide qui imite pharmacologiquement la somatostatine naturelle, mais c'est un inhibiteur de croissance plus puissant que l'hormone naturelle de l'hormone de croissance, le glucagon et l'insuline. Il a été synthétisé en 1979 par le chimiste Wilfried Bauer[2].
+L’octréotide est un octapeptide qui imite pharmacologiquement la somatostatine naturelle, mais c'est un inhibiteur de croissance plus puissant que l'hormone naturelle de l'hormone de croissance, le glucagon et l'insuline. Il a été synthétisé en 1979 par le chimiste Wilfried Bauer.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Octr%C3%A9otide</t>
+          <t>Octréotide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Effets pharmacologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut :
 inhiber la sécrétion de nombreuses hormones, comme la gastrine, la cholécystokinine, le glucagon, l'hormone de croissance, l'insuline, la sécrétine, polypeptide pancréatique, la TSH, et le peptide vasoactif intestinal ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Octr%C3%A9otide</t>
+          <t>Octréotide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les effets indésirables les plus fréquents :
 douleurs abdominales accompagnées de crampes ;
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Octr%C3%A9otide</t>
+          <t>Octréotide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Food and Drug Administration (FDA) a approuvé l'utilisation d'un sel de ce peptide, l'acétate d'octréotide, pour le traitement de l'acromégalie, le traitement de la diarrhée et des épisodes de bouffées de chaleur associée à un syndrome carcinoïde, et le traitement de la diarrhée chez les patients avec une tumeur sécrétant le peptide vasoactif intestinal (VIPomas).
 L'octréotide a également été utilisé en dehors de ces indications pour le traitement de cas sévères de diarrhées rebelles d'autres causes. Il est utilisé en toxicologie pour le traitement de l'hypoglycémie récurrente prolongée après surdosage de sulfonylurées et méglitinides.
